--- a/biology/Botanique/Forêts_de_La_Réunion/Forêts_de_La_Réunion.xlsx
+++ b/biology/Botanique/Forêts_de_La_Réunion/Forêts_de_La_Réunion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAts_de_La_R%C3%A9union</t>
+          <t>Forêts_de_La_Réunion</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les forêts de La Réunion couvrent une bonne partie de cette île française du sud-ouest de l'océan Indien, en particulier son intérieur montagneux, les Hauts. Seules quelques forêts du littoral ont échappé  à l'urbanisme.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAts_de_La_R%C3%A9union</t>
+          <t>Forêts_de_La_Réunion</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Forêts des hauts</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elles concentrent des formations végétales originales telles que l'avoune et qui sont d'ailleurs pour la plupart protégées par le parc national de La Réunion, qui couvre l'essentiel de l'espace montagneux central. Ces forêts d'altitude  sont qualifiées de "bois de couleur des Hauts".
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAts_de_La_R%C3%A9union</t>
+          <t>Forêts_de_La_Réunion</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Forêts littorales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ne subsistent que des lambeaux des anciennes forêts littorales comme la forêt de L'Étang-Salé ou celle du Grand Brûlé, deux forêts de bois de couleur des Bas.
 La forêt semi-sèche réunionnaise, composée de nombreuses espèces endémiques ou indigènes, ne représente que 1 % de sa surface d’origine, sur quelques îlots de végétation sporadiques. Elle est menacée de disparaître, et avec elle un fragment de la biodiversité mondiale. Des « reliques » subsistent notamment autour de la Grande Chaloupe, dans les ravines comprises entre  La Possession et le village de Saint-Bernard. Le Conservatoire du littoral, grâce à des fonds européens et avec l'aide de chantiers de bénévoles, cultive et réintroduit des milliers de plants afin de recréer un continuum écologique et de lutter contre la prolifération des espèces exotiques envahissantes.
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAts_de_La_R%C3%A9union</t>
+          <t>Forêts_de_La_Réunion</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
